--- a/EDA_Outputs/Tables/Descriptive_Statistics_Numerical.xlsx
+++ b/EDA_Outputs/Tables/Descriptive_Statistics_Numerical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2602,37 +2602,74 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
+          <t>CUI_Total_Food_Types</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>31737</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E59" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2</v>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.690817396019884</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3.776468951433813</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
           <t>CUI_Avg_Amount_Spent</t>
         </is>
       </c>
-      <c r="B59" t="n">
-        <v>31737</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B60" t="n">
+        <v>31737</v>
+      </c>
+      <c r="C60" t="n">
         <v>10.31</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D60" t="n">
         <v>7.86</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E60" t="n">
         <v>0.37</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F60" t="n">
         <v>5.07</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G60" t="n">
         <v>8.220000000000001</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H60" t="n">
         <v>12.92</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I60" t="n">
         <v>104.32</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J60" t="n">
         <v>2.444503531215609</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K60" t="n">
         <v>10.98487808546642</v>
       </c>
     </row>
